--- a/Code/Results/Cases/Case_1_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9794305640022185</v>
+        <v>1.028272275890204</v>
       </c>
       <c r="D2">
-        <v>1.036700466042027</v>
+        <v>1.033364396552964</v>
       </c>
       <c r="E2">
-        <v>0.9969941189677958</v>
+        <v>1.037472196307419</v>
       </c>
       <c r="F2">
-        <v>1.004647892539791</v>
+        <v>1.046638173760821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049357901195109</v>
+        <v>1.032622301507724</v>
       </c>
       <c r="J2">
-        <v>1.002244405266462</v>
+        <v>1.033425514789117</v>
       </c>
       <c r="K2">
-        <v>1.047671129576109</v>
+        <v>1.036166958111639</v>
       </c>
       <c r="L2">
-        <v>1.00849548994502</v>
+        <v>1.040262983439837</v>
       </c>
       <c r="M2">
-        <v>1.016042852406716</v>
+        <v>1.049403049437539</v>
       </c>
       <c r="N2">
-        <v>1.003667707280981</v>
+        <v>1.034893097555681</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.985257421088075</v>
+        <v>1.029492143617646</v>
       </c>
       <c r="D3">
-        <v>1.038711034970393</v>
+        <v>1.033770693757986</v>
       </c>
       <c r="E3">
-        <v>1.001925299800612</v>
+        <v>1.038556118407225</v>
       </c>
       <c r="F3">
-        <v>1.0100027892874</v>
+        <v>1.047809647248494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049977231036199</v>
+        <v>1.032677442911459</v>
       </c>
       <c r="J3">
-        <v>1.006158214460255</v>
+        <v>1.034284535295681</v>
       </c>
       <c r="K3">
-        <v>1.048871448008366</v>
+        <v>1.036383295965178</v>
       </c>
       <c r="L3">
-        <v>1.012533605187388</v>
+        <v>1.041155994684157</v>
       </c>
       <c r="M3">
-        <v>1.020509262597893</v>
+        <v>1.050385271528423</v>
       </c>
       <c r="N3">
-        <v>1.007587074532748</v>
+        <v>1.035753337969895</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9889373835258407</v>
+        <v>1.030281606163354</v>
       </c>
       <c r="D4">
-        <v>1.039985616997792</v>
+        <v>1.034033190620537</v>
       </c>
       <c r="E4">
-        <v>1.005045743303094</v>
+        <v>1.039257794178608</v>
       </c>
       <c r="F4">
-        <v>1.013389559435245</v>
+        <v>1.048567726082159</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050356685204582</v>
+        <v>1.032711461240549</v>
       </c>
       <c r="J4">
-        <v>1.008628368840031</v>
+        <v>1.034840028273569</v>
       </c>
       <c r="K4">
-        <v>1.049624263100394</v>
+        <v>1.036522139374415</v>
       </c>
       <c r="L4">
-        <v>1.015083649731179</v>
+        <v>1.041733548070532</v>
       </c>
       <c r="M4">
-        <v>1.02332902619669</v>
+        <v>1.051020318311885</v>
       </c>
       <c r="N4">
-        <v>1.010060736815074</v>
+        <v>1.036309619811528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9904637983613269</v>
+        <v>1.030613528437029</v>
       </c>
       <c r="D5">
-        <v>1.040515242882613</v>
+        <v>1.034143445376686</v>
       </c>
       <c r="E5">
-        <v>1.006341469145888</v>
+        <v>1.039552852725858</v>
       </c>
       <c r="F5">
-        <v>1.014795429760614</v>
+        <v>1.048886436926925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050511176292489</v>
+        <v>1.032725363918995</v>
       </c>
       <c r="J5">
-        <v>1.009652526873202</v>
+        <v>1.035073474524338</v>
       </c>
       <c r="K5">
-        <v>1.049935115656958</v>
+        <v>1.036580234418838</v>
       </c>
       <c r="L5">
-        <v>1.016141260592399</v>
+        <v>1.041976284186464</v>
       </c>
       <c r="M5">
-        <v>1.024498300259465</v>
+        <v>1.051287168954063</v>
       </c>
       <c r="N5">
-        <v>1.011086349270125</v>
+        <v>1.036543397582749</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9907189076146814</v>
+        <v>1.030669261592588</v>
       </c>
       <c r="D6">
-        <v>1.040603808412145</v>
+        <v>1.034161951774116</v>
       </c>
       <c r="E6">
-        <v>1.006558103135372</v>
+        <v>1.039602398722026</v>
       </c>
       <c r="F6">
-        <v>1.015030452462272</v>
+        <v>1.048939950754449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050536822824741</v>
+        <v>1.032727674841483</v>
       </c>
       <c r="J6">
-        <v>1.009823666821723</v>
+        <v>1.035112666338216</v>
       </c>
       <c r="K6">
-        <v>1.049986981315423</v>
+        <v>1.036589972681188</v>
       </c>
       <c r="L6">
-        <v>1.016318009549384</v>
+        <v>1.042017036723727</v>
       </c>
       <c r="M6">
-        <v>1.024693698070717</v>
+        <v>1.051331967155563</v>
       </c>
       <c r="N6">
-        <v>1.011257732257003</v>
+        <v>1.036582645053499</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9889578593852757</v>
+        <v>1.030286041196023</v>
       </c>
       <c r="D7">
-        <v>1.039992718137613</v>
+        <v>1.034034664241319</v>
       </c>
       <c r="E7">
-        <v>1.005063119211251</v>
+        <v>1.03926173647331</v>
       </c>
       <c r="F7">
-        <v>1.013408414172117</v>
+        <v>1.048571984654083</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050358769206931</v>
+        <v>1.032711648576138</v>
       </c>
       <c r="J7">
-        <v>1.008642109054879</v>
+        <v>1.034843147918725</v>
       </c>
       <c r="K7">
-        <v>1.049628438744753</v>
+        <v>1.036522916724518</v>
       </c>
       <c r="L7">
-        <v>1.015097837470073</v>
+        <v>1.041736791785957</v>
       </c>
       <c r="M7">
-        <v>1.023344712706824</v>
+        <v>1.051023884465858</v>
       </c>
       <c r="N7">
-        <v>1.010074496542603</v>
+        <v>1.036312743886937</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9814191205464005</v>
+        <v>1.028684510851954</v>
       </c>
       <c r="D8">
-        <v>1.037385479408877</v>
+        <v>1.033501789133646</v>
       </c>
       <c r="E8">
-        <v>0.9986756612060121</v>
+        <v>1.037838450084049</v>
       </c>
       <c r="F8">
-        <v>1.006474292858134</v>
+        <v>1.04703406737161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049571656965483</v>
+        <v>1.032641280433504</v>
       </c>
       <c r="J8">
-        <v>1.003580396083423</v>
+        <v>1.033715897995621</v>
       </c>
       <c r="K8">
-        <v>1.04808177766088</v>
+        <v>1.03624030604183</v>
       </c>
       <c r="L8">
-        <v>1.009873601435994</v>
+        <v>1.040564840185884</v>
       </c>
       <c r="M8">
-        <v>1.017567274137155</v>
+        <v>1.049735103345248</v>
       </c>
       <c r="N8">
-        <v>1.005005595358142</v>
+        <v>1.035183893139645</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9673938363121253</v>
+        <v>1.025863292912474</v>
       </c>
       <c r="D9">
-        <v>1.032583833435098</v>
+        <v>1.032559787080287</v>
       </c>
       <c r="E9">
-        <v>0.9868456198798183</v>
+        <v>1.035332739492436</v>
       </c>
       <c r="F9">
-        <v>0.9936180126359115</v>
+        <v>1.044324461043154</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04801835490161</v>
+        <v>1.032504589134172</v>
       </c>
       <c r="J9">
-        <v>0.9941529793117058</v>
+        <v>1.031726809762031</v>
       </c>
       <c r="K9">
-        <v>1.045169490358679</v>
+        <v>1.03573362826684</v>
       </c>
       <c r="L9">
-        <v>1.000155785144395</v>
+        <v>1.038497495497203</v>
       </c>
       <c r="M9">
-        <v>1.006815488784111</v>
+        <v>1.047460120360787</v>
       </c>
       <c r="N9">
-        <v>0.9955647905732687</v>
+        <v>1.033191980172612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9574709732503032</v>
+        <v>1.023982952377646</v>
       </c>
       <c r="D10">
-        <v>1.029235472873049</v>
+        <v>1.031929885495124</v>
       </c>
       <c r="E10">
-        <v>0.9785183544485646</v>
+        <v>1.033663755719051</v>
       </c>
       <c r="F10">
-        <v>0.9845599222142074</v>
+        <v>1.042518270742739</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046866078819238</v>
+        <v>1.032404972766827</v>
       </c>
       <c r="J10">
-        <v>0.9874798254572529</v>
+        <v>1.030398852442587</v>
       </c>
       <c r="K10">
-        <v>1.043096200014435</v>
+        <v>1.035390089417513</v>
       </c>
       <c r="L10">
-        <v>0.9932866095319788</v>
+        <v>1.03711772223817</v>
       </c>
       <c r="M10">
-        <v>0.9992136624980016</v>
+        <v>1.045940740825306</v>
       </c>
       <c r="N10">
-        <v>0.9888821600749215</v>
+        <v>1.031862137001455</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9530197032541118</v>
+        <v>1.023168828136641</v>
       </c>
       <c r="D11">
-        <v>1.027748750027645</v>
+        <v>1.031656706225684</v>
       </c>
       <c r="E11">
-        <v>0.9747944673713862</v>
+        <v>1.032941407047278</v>
       </c>
       <c r="F11">
-        <v>0.9805074285116651</v>
+        <v>1.041736207849456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046338209081688</v>
+        <v>1.032359833850643</v>
       </c>
       <c r="J11">
-        <v>0.9844864959345654</v>
+        <v>1.029823367271793</v>
       </c>
       <c r="K11">
-        <v>1.042165675296607</v>
+        <v>1.035239986128721</v>
       </c>
       <c r="L11">
-        <v>0.9902079091145152</v>
+        <v>1.036519886474246</v>
       </c>
       <c r="M11">
-        <v>0.9958065524981485</v>
+        <v>1.045282175781077</v>
       </c>
       <c r="N11">
-        <v>0.9858845796809721</v>
+        <v>1.031285834575711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9513412926668833</v>
+        <v>1.022866435022286</v>
       </c>
       <c r="D12">
-        <v>1.027190799066205</v>
+        <v>1.031555173105067</v>
       </c>
       <c r="E12">
-        <v>0.9733922146010896</v>
+        <v>1.032673143240644</v>
       </c>
       <c r="F12">
-        <v>0.9789811882690703</v>
+        <v>1.041445718029648</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046137672256814</v>
+        <v>1.032342766851698</v>
       </c>
       <c r="J12">
-        <v>0.9833579326113671</v>
+        <v>1.029609534360386</v>
       </c>
       <c r="K12">
-        <v>1.041814970719834</v>
+        <v>1.035184029856512</v>
       </c>
       <c r="L12">
-        <v>0.9890475702908877</v>
+        <v>1.036297764656489</v>
       </c>
       <c r="M12">
-        <v>0.994522466823467</v>
+        <v>1.045037454647293</v>
       </c>
       <c r="N12">
-        <v>0.9847544136684065</v>
+        <v>1.031071697997042</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9517024798138574</v>
+        <v>1.022931299009981</v>
       </c>
       <c r="D13">
-        <v>1.027310743104742</v>
+        <v>1.031576955084414</v>
       </c>
       <c r="E13">
-        <v>0.9736938860137264</v>
+        <v>1.032730684556675</v>
       </c>
       <c r="F13">
-        <v>0.979309544422322</v>
+        <v>1.04150802895938</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046180892012384</v>
+        <v>1.032346441362643</v>
       </c>
       <c r="J13">
-        <v>0.9836007883585081</v>
+        <v>1.029655405529934</v>
       </c>
       <c r="K13">
-        <v>1.041890429711259</v>
+        <v>1.035196041750449</v>
       </c>
       <c r="L13">
-        <v>0.9892972447652587</v>
+        <v>1.036345413229086</v>
       </c>
       <c r="M13">
-        <v>0.9947987665190461</v>
+        <v>1.045089952737337</v>
       </c>
       <c r="N13">
-        <v>0.9849976142985644</v>
+        <v>1.031117634308912</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9528814864678313</v>
+        <v>1.023143832060746</v>
       </c>
       <c r="D14">
-        <v>1.027702747306654</v>
+        <v>1.031648314722646</v>
       </c>
       <c r="E14">
-        <v>0.9746789529237526</v>
+        <v>1.032919231292222</v>
       </c>
       <c r="F14">
-        <v>0.9803817051831974</v>
+        <v>1.041712195813178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046321724390505</v>
+        <v>1.032358429210915</v>
       </c>
       <c r="J14">
-        <v>0.984393556176966</v>
+        <v>1.029805693255176</v>
       </c>
       <c r="K14">
-        <v>1.042136790160034</v>
+        <v>1.035235364862727</v>
       </c>
       <c r="L14">
-        <v>0.9901123440504644</v>
+        <v>1.03650152702584</v>
       </c>
       <c r="M14">
-        <v>0.9957007949099711</v>
+        <v>1.045261949117217</v>
       </c>
       <c r="N14">
-        <v>0.9857915079382564</v>
+        <v>1.031268135459962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9536045408548391</v>
+        <v>1.023274781789852</v>
       </c>
       <c r="D15">
-        <v>1.027943511068939</v>
+        <v>1.031692273574002</v>
       </c>
       <c r="E15">
-        <v>0.9752833221631003</v>
+        <v>1.033035407567584</v>
       </c>
       <c r="F15">
-        <v>0.9810394770764123</v>
+        <v>1.041837990131103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04640790087559</v>
+        <v>1.032365775536542</v>
       </c>
       <c r="J15">
-        <v>0.9848797576143874</v>
+        <v>1.029898280889036</v>
       </c>
       <c r="K15">
-        <v>1.042287905187117</v>
+        <v>1.035259566507126</v>
       </c>
       <c r="L15">
-        <v>0.9906122963356209</v>
+        <v>1.036597706035504</v>
       </c>
       <c r="M15">
-        <v>0.9962540711355146</v>
+        <v>1.045367908381309</v>
       </c>
       <c r="N15">
-        <v>0.9862783998374871</v>
+        <v>1.031360854578882</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9577629838254407</v>
+        <v>1.024036984503565</v>
       </c>
       <c r="D16">
-        <v>1.029333350268853</v>
+        <v>1.031948006670106</v>
       </c>
       <c r="E16">
-        <v>0.9787629006041386</v>
+        <v>1.033711702514256</v>
       </c>
       <c r="F16">
-        <v>0.9848260123094046</v>
+        <v>1.042570174193771</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046900492628345</v>
+        <v>1.032407926321386</v>
       </c>
       <c r="J16">
-        <v>0.9876762033055567</v>
+        <v>1.030437035461833</v>
       </c>
       <c r="K16">
-        <v>1.043157253460816</v>
+        <v>1.035400022982576</v>
       </c>
       <c r="L16">
-        <v>0.9934886435226871</v>
+        <v>1.037157390420267</v>
       </c>
       <c r="M16">
-        <v>0.9994372497388072</v>
+        <v>1.045984433546451</v>
       </c>
       <c r="N16">
-        <v>0.9890788168022944</v>
+        <v>1.031900374244969</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9603288686469938</v>
+        <v>1.024515112621055</v>
       </c>
       <c r="D17">
-        <v>1.030195169500695</v>
+        <v>1.032108308246415</v>
       </c>
       <c r="E17">
-        <v>0.9809130508376455</v>
+        <v>1.034136012538422</v>
       </c>
       <c r="F17">
-        <v>0.9871653849925444</v>
+        <v>1.043029460901174</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047201658854181</v>
+        <v>1.032433830290818</v>
       </c>
       <c r="J17">
-        <v>0.9894017955632296</v>
+        <v>1.030774854948941</v>
       </c>
       <c r="K17">
-        <v>1.043693700886276</v>
+        <v>1.035487767524604</v>
       </c>
       <c r="L17">
-        <v>0.9952642299041189</v>
+        <v>1.037508361784532</v>
       </c>
       <c r="M17">
-        <v>1.001402257151701</v>
+        <v>1.046370985072707</v>
       </c>
       <c r="N17">
-        <v>0.9908068595989016</v>
+        <v>1.032238673474497</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.961810718155408</v>
+        <v>1.024794004127799</v>
       </c>
       <c r="D18">
-        <v>1.030694310272358</v>
+        <v>1.032201768035729</v>
       </c>
       <c r="E18">
-        <v>0.9821558928850894</v>
+        <v>1.034383537547902</v>
       </c>
       <c r="F18">
-        <v>0.9885174319366037</v>
+        <v>1.043297357993076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047374541437887</v>
+        <v>1.032448746196096</v>
       </c>
       <c r="J18">
-        <v>0.9903983687172536</v>
+        <v>1.030971853998731</v>
       </c>
       <c r="K18">
-        <v>1.044003449349238</v>
+        <v>1.035538817208417</v>
       </c>
       <c r="L18">
-        <v>0.9962899155975807</v>
+        <v>1.037713040392968</v>
       </c>
       <c r="M18">
-        <v>1.002537357466269</v>
+        <v>1.046596390074652</v>
       </c>
       <c r="N18">
-        <v>0.9918048480011128</v>
+        <v>1.032435952285534</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9623135336016493</v>
+        <v>1.024889100265232</v>
       </c>
       <c r="D19">
-        <v>1.030863908474172</v>
+        <v>1.032233628321391</v>
       </c>
       <c r="E19">
-        <v>0.9825777896599418</v>
+        <v>1.034467942670902</v>
       </c>
       <c r="F19">
-        <v>0.988976370048914</v>
+        <v>1.043388704512142</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047433021329073</v>
+        <v>1.032453799300614</v>
       </c>
       <c r="J19">
-        <v>0.9907365211707891</v>
+        <v>1.031039017933477</v>
       </c>
       <c r="K19">
-        <v>1.044108535017083</v>
+        <v>1.035556201700441</v>
       </c>
       <c r="L19">
-        <v>0.9966379862570048</v>
+        <v>1.037782824259876</v>
       </c>
       <c r="M19">
-        <v>1.002922556354139</v>
+        <v>1.046673236537018</v>
       </c>
       <c r="N19">
-        <v>0.9921434806699189</v>
+        <v>1.032503211600771</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9600551153735775</v>
+        <v>1.024463813246012</v>
       </c>
       <c r="D20">
-        <v>1.030103072250289</v>
+        <v>1.032091113672518</v>
       </c>
       <c r="E20">
-        <v>0.9806835382324484</v>
+        <v>1.034090484773108</v>
       </c>
       <c r="F20">
-        <v>0.9869156918568986</v>
+        <v>1.04298018349167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047169635193528</v>
+        <v>1.032431071043435</v>
       </c>
       <c r="J20">
-        <v>0.9892176912204045</v>
+        <v>1.03073861481558</v>
       </c>
       <c r="K20">
-        <v>1.043636472195223</v>
+        <v>1.035478366825275</v>
       </c>
       <c r="L20">
-        <v>0.9950747665899757</v>
+        <v>1.037470709720396</v>
       </c>
       <c r="M20">
-        <v>1.001192582157969</v>
+        <v>1.046329518376774</v>
       </c>
       <c r="N20">
-        <v>0.9906224938067925</v>
+        <v>1.032202381875989</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9525350040299411</v>
+        <v>1.023081246149432</v>
       </c>
       <c r="D21">
-        <v>1.027587471123852</v>
+        <v>1.031627302787493</v>
       </c>
       <c r="E21">
-        <v>0.9743894117071729</v>
+        <v>1.032863707645208</v>
       </c>
       <c r="F21">
-        <v>0.9800665710985376</v>
+        <v>1.041652073686374</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046280376941695</v>
+        <v>1.032354907374874</v>
       </c>
       <c r="J21">
-        <v>0.9841605764916569</v>
+        <v>1.029761439266959</v>
       </c>
       <c r="K21">
-        <v>1.042064384201752</v>
+        <v>1.035223790729937</v>
       </c>
       <c r="L21">
-        <v>0.9898727900162214</v>
+        <v>1.036455557041804</v>
       </c>
       <c r="M21">
-        <v>0.9954356917356039</v>
+        <v>1.045211303259939</v>
       </c>
       <c r="N21">
-        <v>0.9855581973950711</v>
+        <v>1.031223818626006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9476610890066947</v>
+        <v>1.02221202147391</v>
       </c>
       <c r="D22">
-        <v>1.025972644173921</v>
+        <v>1.031335327761509</v>
       </c>
       <c r="E22">
-        <v>0.9703211804415599</v>
+        <v>1.032092665029592</v>
       </c>
       <c r="F22">
-        <v>0.9756381783966993</v>
+        <v>1.04081705599475</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045695380653817</v>
+        <v>1.032305282618539</v>
       </c>
       <c r="J22">
-        <v>0.980883671022125</v>
+        <v>1.029146632422734</v>
       </c>
       <c r="K22">
-        <v>1.041046559053218</v>
+        <v>1.035062565080279</v>
       </c>
       <c r="L22">
-        <v>0.9865044342544974</v>
+        <v>1.035816948340192</v>
       </c>
       <c r="M22">
-        <v>0.9917082047907904</v>
+        <v>1.044507653583812</v>
       </c>
       <c r="N22">
-        <v>0.9822766383439061</v>
+        <v>1.030608138685543</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9502592998778493</v>
+        <v>1.02267280999887</v>
       </c>
       <c r="D23">
-        <v>1.026831901537097</v>
+        <v>1.031490142557016</v>
       </c>
       <c r="E23">
-        <v>0.9724887989459224</v>
+        <v>1.03250138311362</v>
       </c>
       <c r="F23">
-        <v>0.9779978249770197</v>
+        <v>1.041259713421169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046007993551841</v>
+        <v>1.03233175410334</v>
       </c>
       <c r="J23">
-        <v>0.982630443508698</v>
+        <v>1.029472593217048</v>
       </c>
       <c r="K23">
-        <v>1.041588963926018</v>
+        <v>1.035148143674574</v>
       </c>
       <c r="L23">
-        <v>0.9882997178274824</v>
+        <v>1.036155519700782</v>
       </c>
       <c r="M23">
-        <v>0.9936948704949632</v>
+        <v>1.04488072724492</v>
       </c>
       <c r="N23">
-        <v>0.9840258914477674</v>
+        <v>1.030934562381573</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9601788582608233</v>
+        <v>1.024486993202379</v>
       </c>
       <c r="D24">
-        <v>1.030144697972495</v>
+        <v>1.032098883288621</v>
       </c>
       <c r="E24">
-        <v>0.9807872799379457</v>
+        <v>1.034111056711302</v>
       </c>
       <c r="F24">
-        <v>0.9870285558692269</v>
+        <v>1.043002449822994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047184113897854</v>
+        <v>1.032432318426394</v>
       </c>
       <c r="J24">
-        <v>0.9893009106702323</v>
+        <v>1.030754990312062</v>
       </c>
       <c r="K24">
-        <v>1.043662341108611</v>
+        <v>1.035482614999258</v>
       </c>
       <c r="L24">
-        <v>0.9951604076779195</v>
+        <v>1.037487723182027</v>
       </c>
       <c r="M24">
-        <v>1.00128735933898</v>
+        <v>1.046348255589508</v>
       </c>
       <c r="N24">
-        <v>0.9907058314377845</v>
+        <v>1.032218780627555</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9711147875955466</v>
+        <v>1.026592553311649</v>
       </c>
       <c r="D25">
-        <v>1.03385052163212</v>
+        <v>1.032803661011443</v>
       </c>
       <c r="E25">
-        <v>0.9899773600575947</v>
+        <v>1.035980258885621</v>
       </c>
       <c r="F25">
-        <v>0.9970229449902723</v>
+        <v>1.045024917453846</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048440110684826</v>
+        <v>1.03254142664946</v>
       </c>
       <c r="J25">
-        <v>0.9966549512018943</v>
+        <v>1.032241366737783</v>
       </c>
       <c r="K25">
-        <v>1.045945133252005</v>
+        <v>1.035865636807331</v>
       </c>
       <c r="L25">
-        <v>1.002733283022656</v>
+        <v>1.039032221774529</v>
       </c>
       <c r="M25">
-        <v>1.009667652370041</v>
+        <v>1.048048734893587</v>
       </c>
       <c r="N25">
-        <v>0.9980703155505216</v>
+        <v>1.03370726787829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028272275890204</v>
+        <v>0.9794305640022183</v>
       </c>
       <c r="D2">
-        <v>1.033364396552964</v>
+        <v>1.036700466042027</v>
       </c>
       <c r="E2">
-        <v>1.037472196307419</v>
+        <v>0.9969941189677951</v>
       </c>
       <c r="F2">
-        <v>1.046638173760821</v>
+        <v>1.004647892539791</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032622301507724</v>
+        <v>1.049357901195109</v>
       </c>
       <c r="J2">
-        <v>1.033425514789117</v>
+        <v>1.002244405266462</v>
       </c>
       <c r="K2">
-        <v>1.036166958111639</v>
+        <v>1.047671129576109</v>
       </c>
       <c r="L2">
-        <v>1.040262983439837</v>
+        <v>1.008495489945019</v>
       </c>
       <c r="M2">
-        <v>1.049403049437539</v>
+        <v>1.016042852406716</v>
       </c>
       <c r="N2">
-        <v>1.034893097555681</v>
+        <v>1.00366770728098</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029492143617646</v>
+        <v>0.9852574210880756</v>
       </c>
       <c r="D3">
-        <v>1.033770693757986</v>
+        <v>1.038711034970393</v>
       </c>
       <c r="E3">
-        <v>1.038556118407225</v>
+        <v>1.001925299800612</v>
       </c>
       <c r="F3">
-        <v>1.047809647248494</v>
+        <v>1.0100027892874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032677442911459</v>
+        <v>1.049977231036199</v>
       </c>
       <c r="J3">
-        <v>1.034284535295681</v>
+        <v>1.006158214460255</v>
       </c>
       <c r="K3">
-        <v>1.036383295965178</v>
+        <v>1.048871448008366</v>
       </c>
       <c r="L3">
-        <v>1.041155994684157</v>
+        <v>1.012533605187388</v>
       </c>
       <c r="M3">
-        <v>1.050385271528423</v>
+        <v>1.020509262597894</v>
       </c>
       <c r="N3">
-        <v>1.035753337969895</v>
+        <v>1.007587074532749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030281606163354</v>
+        <v>0.9889373835258406</v>
       </c>
       <c r="D4">
-        <v>1.034033190620537</v>
+        <v>1.039985616997793</v>
       </c>
       <c r="E4">
-        <v>1.039257794178608</v>
+        <v>1.005045743303094</v>
       </c>
       <c r="F4">
-        <v>1.048567726082159</v>
+        <v>1.013389559435245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032711461240549</v>
+        <v>1.050356685204583</v>
       </c>
       <c r="J4">
-        <v>1.034840028273569</v>
+        <v>1.008628368840031</v>
       </c>
       <c r="K4">
-        <v>1.036522139374415</v>
+        <v>1.049624263100394</v>
       </c>
       <c r="L4">
-        <v>1.041733548070532</v>
+        <v>1.015083649731179</v>
       </c>
       <c r="M4">
-        <v>1.051020318311885</v>
+        <v>1.02332902619669</v>
       </c>
       <c r="N4">
-        <v>1.036309619811528</v>
+        <v>1.010060736815074</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030613528437029</v>
+        <v>0.9904637983613267</v>
       </c>
       <c r="D5">
-        <v>1.034143445376686</v>
+        <v>1.040515242882613</v>
       </c>
       <c r="E5">
-        <v>1.039552852725858</v>
+        <v>1.006341469145887</v>
       </c>
       <c r="F5">
-        <v>1.048886436926925</v>
+        <v>1.014795429760613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032725363918995</v>
+        <v>1.050511176292489</v>
       </c>
       <c r="J5">
-        <v>1.035073474524338</v>
+        <v>1.009652526873202</v>
       </c>
       <c r="K5">
-        <v>1.036580234418838</v>
+        <v>1.049935115656958</v>
       </c>
       <c r="L5">
-        <v>1.041976284186464</v>
+        <v>1.016141260592399</v>
       </c>
       <c r="M5">
-        <v>1.051287168954063</v>
+        <v>1.024498300259464</v>
       </c>
       <c r="N5">
-        <v>1.036543397582749</v>
+        <v>1.011086349270125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030669261592588</v>
+        <v>0.9907189076146814</v>
       </c>
       <c r="D6">
-        <v>1.034161951774116</v>
+        <v>1.040603808412145</v>
       </c>
       <c r="E6">
-        <v>1.039602398722026</v>
+        <v>1.006558103135372</v>
       </c>
       <c r="F6">
-        <v>1.048939950754449</v>
+        <v>1.015030452462272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032727674841483</v>
+        <v>1.05053682282474</v>
       </c>
       <c r="J6">
-        <v>1.035112666338216</v>
+        <v>1.009823666821722</v>
       </c>
       <c r="K6">
-        <v>1.036589972681188</v>
+        <v>1.049986981315424</v>
       </c>
       <c r="L6">
-        <v>1.042017036723727</v>
+        <v>1.016318009549384</v>
       </c>
       <c r="M6">
-        <v>1.051331967155563</v>
+        <v>1.024693698070717</v>
       </c>
       <c r="N6">
-        <v>1.036582645053499</v>
+        <v>1.011257732257003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030286041196023</v>
+        <v>0.9889578593852768</v>
       </c>
       <c r="D7">
-        <v>1.034034664241319</v>
+        <v>1.039992718137612</v>
       </c>
       <c r="E7">
-        <v>1.03926173647331</v>
+        <v>1.005063119211252</v>
       </c>
       <c r="F7">
-        <v>1.048571984654083</v>
+        <v>1.013408414172118</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032711648576138</v>
+        <v>1.050358769206931</v>
       </c>
       <c r="J7">
-        <v>1.034843147918725</v>
+        <v>1.00864210905488</v>
       </c>
       <c r="K7">
-        <v>1.036522916724518</v>
+        <v>1.049628438744753</v>
       </c>
       <c r="L7">
-        <v>1.041736791785957</v>
+        <v>1.015097837470073</v>
       </c>
       <c r="M7">
-        <v>1.051023884465858</v>
+        <v>1.023344712706824</v>
       </c>
       <c r="N7">
-        <v>1.036312743886937</v>
+        <v>1.010074496542604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028684510851954</v>
+        <v>0.9814191205464007</v>
       </c>
       <c r="D8">
-        <v>1.033501789133646</v>
+        <v>1.037385479408877</v>
       </c>
       <c r="E8">
-        <v>1.037838450084049</v>
+        <v>0.998675661206012</v>
       </c>
       <c r="F8">
-        <v>1.04703406737161</v>
+        <v>1.006474292858134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032641280433504</v>
+        <v>1.049571656965483</v>
       </c>
       <c r="J8">
-        <v>1.033715897995621</v>
+        <v>1.003580396083423</v>
       </c>
       <c r="K8">
-        <v>1.03624030604183</v>
+        <v>1.04808177766088</v>
       </c>
       <c r="L8">
-        <v>1.040564840185884</v>
+        <v>1.009873601435994</v>
       </c>
       <c r="M8">
-        <v>1.049735103345248</v>
+        <v>1.017567274137155</v>
       </c>
       <c r="N8">
-        <v>1.035183893139645</v>
+        <v>1.005005595358142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025863292912474</v>
+        <v>0.9673938363121251</v>
       </c>
       <c r="D9">
-        <v>1.032559787080287</v>
+        <v>1.032583833435098</v>
       </c>
       <c r="E9">
-        <v>1.035332739492436</v>
+        <v>0.9868456198798177</v>
       </c>
       <c r="F9">
-        <v>1.044324461043154</v>
+        <v>0.9936180126359111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032504589134172</v>
+        <v>1.04801835490161</v>
       </c>
       <c r="J9">
-        <v>1.031726809762031</v>
+        <v>0.9941529793117055</v>
       </c>
       <c r="K9">
-        <v>1.03573362826684</v>
+        <v>1.045169490358679</v>
       </c>
       <c r="L9">
-        <v>1.038497495497203</v>
+        <v>1.000155785144395</v>
       </c>
       <c r="M9">
-        <v>1.047460120360787</v>
+        <v>1.006815488784111</v>
       </c>
       <c r="N9">
-        <v>1.033191980172612</v>
+        <v>0.9955647905732687</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023982952377646</v>
+        <v>0.9574709732503032</v>
       </c>
       <c r="D10">
-        <v>1.031929885495124</v>
+        <v>1.029235472873049</v>
       </c>
       <c r="E10">
-        <v>1.033663755719051</v>
+        <v>0.9785183544485643</v>
       </c>
       <c r="F10">
-        <v>1.042518270742739</v>
+        <v>0.9845599222142072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032404972766827</v>
+        <v>1.046866078819238</v>
       </c>
       <c r="J10">
-        <v>1.030398852442587</v>
+        <v>0.9874798254572524</v>
       </c>
       <c r="K10">
-        <v>1.035390089417513</v>
+        <v>1.043096200014435</v>
       </c>
       <c r="L10">
-        <v>1.03711772223817</v>
+        <v>0.9932866095319786</v>
       </c>
       <c r="M10">
-        <v>1.045940740825306</v>
+        <v>0.9992136624980013</v>
       </c>
       <c r="N10">
-        <v>1.031862137001455</v>
+        <v>0.9888821600749212</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023168828136641</v>
+        <v>0.9530197032541117</v>
       </c>
       <c r="D11">
-        <v>1.031656706225684</v>
+        <v>1.027748750027645</v>
       </c>
       <c r="E11">
-        <v>1.032941407047278</v>
+        <v>0.9747944673713862</v>
       </c>
       <c r="F11">
-        <v>1.041736207849456</v>
+        <v>0.9805074285116649</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032359833850643</v>
+        <v>1.046338209081688</v>
       </c>
       <c r="J11">
-        <v>1.029823367271793</v>
+        <v>0.9844864959345654</v>
       </c>
       <c r="K11">
-        <v>1.035239986128721</v>
+        <v>1.042165675296606</v>
       </c>
       <c r="L11">
-        <v>1.036519886474246</v>
+        <v>0.9902079091145153</v>
       </c>
       <c r="M11">
-        <v>1.045282175781077</v>
+        <v>0.9958065524981484</v>
       </c>
       <c r="N11">
-        <v>1.031285834575711</v>
+        <v>0.9858845796809719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022866435022286</v>
+        <v>0.9513412926668831</v>
       </c>
       <c r="D12">
-        <v>1.031555173105067</v>
+        <v>1.027190799066206</v>
       </c>
       <c r="E12">
-        <v>1.032673143240644</v>
+        <v>0.9733922146010892</v>
       </c>
       <c r="F12">
-        <v>1.041445718029648</v>
+        <v>0.9789811882690701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032342766851698</v>
+        <v>1.046137672256815</v>
       </c>
       <c r="J12">
-        <v>1.029609534360386</v>
+        <v>0.9833579326113667</v>
       </c>
       <c r="K12">
-        <v>1.035184029856512</v>
+        <v>1.041814970719834</v>
       </c>
       <c r="L12">
-        <v>1.036297764656489</v>
+        <v>0.9890475702908874</v>
       </c>
       <c r="M12">
-        <v>1.045037454647293</v>
+        <v>0.9945224668234668</v>
       </c>
       <c r="N12">
-        <v>1.031071697997042</v>
+        <v>0.9847544136684062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022931299009981</v>
+        <v>0.9517024798138579</v>
       </c>
       <c r="D13">
-        <v>1.031576955084414</v>
+        <v>1.027310743104742</v>
       </c>
       <c r="E13">
-        <v>1.032730684556675</v>
+        <v>0.9736938860137269</v>
       </c>
       <c r="F13">
-        <v>1.04150802895938</v>
+        <v>0.9793095444223225</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032346441362643</v>
+        <v>1.046180892012385</v>
       </c>
       <c r="J13">
-        <v>1.029655405529934</v>
+        <v>0.9836007883585085</v>
       </c>
       <c r="K13">
-        <v>1.035196041750449</v>
+        <v>1.041890429711259</v>
       </c>
       <c r="L13">
-        <v>1.036345413229086</v>
+        <v>0.989297244765259</v>
       </c>
       <c r="M13">
-        <v>1.045089952737337</v>
+        <v>0.9947987665190466</v>
       </c>
       <c r="N13">
-        <v>1.031117634308912</v>
+        <v>0.9849976142985654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023143832060746</v>
+        <v>0.9528814864678314</v>
       </c>
       <c r="D14">
-        <v>1.031648314722646</v>
+        <v>1.027702747306655</v>
       </c>
       <c r="E14">
-        <v>1.032919231292222</v>
+        <v>0.9746789529237525</v>
       </c>
       <c r="F14">
-        <v>1.041712195813178</v>
+        <v>0.980381705183197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032358429210915</v>
+        <v>1.046321724390505</v>
       </c>
       <c r="J14">
-        <v>1.029805693255176</v>
+        <v>0.984393556176966</v>
       </c>
       <c r="K14">
-        <v>1.035235364862727</v>
+        <v>1.042136790160034</v>
       </c>
       <c r="L14">
-        <v>1.03650152702584</v>
+        <v>0.9901123440504643</v>
       </c>
       <c r="M14">
-        <v>1.045261949117217</v>
+        <v>0.9957007949099708</v>
       </c>
       <c r="N14">
-        <v>1.031268135459962</v>
+        <v>0.9857915079382564</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023274781789852</v>
+        <v>0.9536045408548387</v>
       </c>
       <c r="D15">
-        <v>1.031692273574002</v>
+        <v>1.027943511068939</v>
       </c>
       <c r="E15">
-        <v>1.033035407567584</v>
+        <v>0.9752833221630998</v>
       </c>
       <c r="F15">
-        <v>1.041837990131103</v>
+        <v>0.9810394770764117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032365775536542</v>
+        <v>1.04640790087559</v>
       </c>
       <c r="J15">
-        <v>1.029898280889036</v>
+        <v>0.9848797576143871</v>
       </c>
       <c r="K15">
-        <v>1.035259566507126</v>
+        <v>1.042287905187117</v>
       </c>
       <c r="L15">
-        <v>1.036597706035504</v>
+        <v>0.9906122963356203</v>
       </c>
       <c r="M15">
-        <v>1.045367908381309</v>
+        <v>0.996254071135514</v>
       </c>
       <c r="N15">
-        <v>1.031360854578882</v>
+        <v>0.9862783998374867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024036984503565</v>
+        <v>0.9577629838254398</v>
       </c>
       <c r="D16">
-        <v>1.031948006670106</v>
+        <v>1.029333350268854</v>
       </c>
       <c r="E16">
-        <v>1.033711702514256</v>
+        <v>0.978762900604138</v>
       </c>
       <c r="F16">
-        <v>1.042570174193771</v>
+        <v>0.9848260123094034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032407926321386</v>
+        <v>1.046900492628345</v>
       </c>
       <c r="J16">
-        <v>1.030437035461833</v>
+        <v>0.9876762033055559</v>
       </c>
       <c r="K16">
-        <v>1.035400022982576</v>
+        <v>1.043157253460816</v>
       </c>
       <c r="L16">
-        <v>1.037157390420267</v>
+        <v>0.9934886435226862</v>
       </c>
       <c r="M16">
-        <v>1.045984433546451</v>
+        <v>0.9994372497388063</v>
       </c>
       <c r="N16">
-        <v>1.031900374244969</v>
+        <v>0.9890788168022937</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024515112621055</v>
+        <v>0.9603288686469934</v>
       </c>
       <c r="D17">
-        <v>1.032108308246415</v>
+        <v>1.030195169500696</v>
       </c>
       <c r="E17">
-        <v>1.034136012538422</v>
+        <v>0.980913050837645</v>
       </c>
       <c r="F17">
-        <v>1.043029460901174</v>
+        <v>0.9871653849925442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032433830290818</v>
+        <v>1.047201658854181</v>
       </c>
       <c r="J17">
-        <v>1.030774854948941</v>
+        <v>0.989401795563229</v>
       </c>
       <c r="K17">
-        <v>1.035487767524604</v>
+        <v>1.043693700886276</v>
       </c>
       <c r="L17">
-        <v>1.037508361784532</v>
+        <v>0.9952642299041184</v>
       </c>
       <c r="M17">
-        <v>1.046370985072707</v>
+        <v>1.001402257151701</v>
       </c>
       <c r="N17">
-        <v>1.032238673474497</v>
+        <v>0.990806859598901</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024794004127799</v>
+        <v>0.9618107181554078</v>
       </c>
       <c r="D18">
-        <v>1.032201768035729</v>
+        <v>1.030694310272357</v>
       </c>
       <c r="E18">
-        <v>1.034383537547902</v>
+        <v>0.982155892885089</v>
       </c>
       <c r="F18">
-        <v>1.043297357993076</v>
+        <v>0.9885174319366032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032448746196096</v>
+        <v>1.047374541437887</v>
       </c>
       <c r="J18">
-        <v>1.030971853998731</v>
+        <v>0.9903983687172533</v>
       </c>
       <c r="K18">
-        <v>1.035538817208417</v>
+        <v>1.044003449349238</v>
       </c>
       <c r="L18">
-        <v>1.037713040392968</v>
+        <v>0.9962899155975804</v>
       </c>
       <c r="M18">
-        <v>1.046596390074652</v>
+        <v>1.002537357466269</v>
       </c>
       <c r="N18">
-        <v>1.032435952285534</v>
+        <v>0.9918048480011123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024889100265232</v>
+        <v>0.9623135336016491</v>
       </c>
       <c r="D19">
-        <v>1.032233628321391</v>
+        <v>1.030863908474172</v>
       </c>
       <c r="E19">
-        <v>1.034467942670902</v>
+        <v>0.9825777896599411</v>
       </c>
       <c r="F19">
-        <v>1.043388704512142</v>
+        <v>0.9889763700489137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032453799300614</v>
+        <v>1.047433021329073</v>
       </c>
       <c r="J19">
-        <v>1.031039017933477</v>
+        <v>0.9907365211707887</v>
       </c>
       <c r="K19">
-        <v>1.035556201700441</v>
+        <v>1.044108535017083</v>
       </c>
       <c r="L19">
-        <v>1.037782824259876</v>
+        <v>0.9966379862570043</v>
       </c>
       <c r="M19">
-        <v>1.046673236537018</v>
+        <v>1.002922556354139</v>
       </c>
       <c r="N19">
-        <v>1.032503211600771</v>
+        <v>0.9921434806699185</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024463813246012</v>
+        <v>0.9600551153735774</v>
       </c>
       <c r="D20">
-        <v>1.032091113672518</v>
+        <v>1.030103072250289</v>
       </c>
       <c r="E20">
-        <v>1.034090484773108</v>
+        <v>0.9806835382324481</v>
       </c>
       <c r="F20">
-        <v>1.04298018349167</v>
+        <v>0.9869156918568981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032431071043435</v>
+        <v>1.047169635193528</v>
       </c>
       <c r="J20">
-        <v>1.03073861481558</v>
+        <v>0.9892176912204044</v>
       </c>
       <c r="K20">
-        <v>1.035478366825275</v>
+        <v>1.043636472195223</v>
       </c>
       <c r="L20">
-        <v>1.037470709720396</v>
+        <v>0.9950747665899754</v>
       </c>
       <c r="M20">
-        <v>1.046329518376774</v>
+        <v>1.001192582157969</v>
       </c>
       <c r="N20">
-        <v>1.032202381875989</v>
+        <v>0.9906224938067927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023081246149432</v>
+        <v>0.952535004029941</v>
       </c>
       <c r="D21">
-        <v>1.031627302787493</v>
+        <v>1.027587471123852</v>
       </c>
       <c r="E21">
-        <v>1.032863707645208</v>
+        <v>0.9743894117071726</v>
       </c>
       <c r="F21">
-        <v>1.041652073686374</v>
+        <v>0.9800665710985375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032354907374874</v>
+        <v>1.046280376941695</v>
       </c>
       <c r="J21">
-        <v>1.029761439266959</v>
+        <v>0.9841605764916568</v>
       </c>
       <c r="K21">
-        <v>1.035223790729937</v>
+        <v>1.042064384201751</v>
       </c>
       <c r="L21">
-        <v>1.036455557041804</v>
+        <v>0.9898727900162213</v>
       </c>
       <c r="M21">
-        <v>1.045211303259939</v>
+        <v>0.9954356917356036</v>
       </c>
       <c r="N21">
-        <v>1.031223818626006</v>
+        <v>0.9855581973950709</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02221202147391</v>
+        <v>0.9476610890066945</v>
       </c>
       <c r="D22">
-        <v>1.031335327761509</v>
+        <v>1.025972644173921</v>
       </c>
       <c r="E22">
-        <v>1.032092665029592</v>
+        <v>0.9703211804415596</v>
       </c>
       <c r="F22">
-        <v>1.04081705599475</v>
+        <v>0.9756381783966991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032305282618539</v>
+        <v>1.045695380653817</v>
       </c>
       <c r="J22">
-        <v>1.029146632422734</v>
+        <v>0.9808836710221249</v>
       </c>
       <c r="K22">
-        <v>1.035062565080279</v>
+        <v>1.041046559053218</v>
       </c>
       <c r="L22">
-        <v>1.035816948340192</v>
+        <v>0.9865044342544972</v>
       </c>
       <c r="M22">
-        <v>1.044507653583812</v>
+        <v>0.9917082047907901</v>
       </c>
       <c r="N22">
-        <v>1.030608138685543</v>
+        <v>0.9822766383439059</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02267280999887</v>
+        <v>0.9502592998778501</v>
       </c>
       <c r="D23">
-        <v>1.031490142557016</v>
+        <v>1.026831901537097</v>
       </c>
       <c r="E23">
-        <v>1.03250138311362</v>
+        <v>0.9724887989459233</v>
       </c>
       <c r="F23">
-        <v>1.041259713421169</v>
+        <v>0.9779978249770201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03233175410334</v>
+        <v>1.046007993551841</v>
       </c>
       <c r="J23">
-        <v>1.029472593217048</v>
+        <v>0.9826304435086988</v>
       </c>
       <c r="K23">
-        <v>1.035148143674574</v>
+        <v>1.041588963926018</v>
       </c>
       <c r="L23">
-        <v>1.036155519700782</v>
+        <v>0.988299717827483</v>
       </c>
       <c r="M23">
-        <v>1.04488072724492</v>
+        <v>0.9936948704949637</v>
       </c>
       <c r="N23">
-        <v>1.030934562381573</v>
+        <v>0.9840258914477685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024486993202379</v>
+        <v>0.9601788582608231</v>
       </c>
       <c r="D24">
-        <v>1.032098883288621</v>
+        <v>1.030144697972494</v>
       </c>
       <c r="E24">
-        <v>1.034111056711302</v>
+        <v>0.9807872799379449</v>
       </c>
       <c r="F24">
-        <v>1.043002449822994</v>
+        <v>0.9870285558692264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032432318426394</v>
+        <v>1.047184113897854</v>
       </c>
       <c r="J24">
-        <v>1.030754990312062</v>
+        <v>0.9893009106702318</v>
       </c>
       <c r="K24">
-        <v>1.035482614999258</v>
+        <v>1.043662341108611</v>
       </c>
       <c r="L24">
-        <v>1.037487723182027</v>
+        <v>0.9951604076779186</v>
       </c>
       <c r="M24">
-        <v>1.046348255589508</v>
+        <v>1.00128735933898</v>
       </c>
       <c r="N24">
-        <v>1.032218780627555</v>
+        <v>0.9907058314377841</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026592553311649</v>
+        <v>0.9711147875955466</v>
       </c>
       <c r="D25">
-        <v>1.032803661011443</v>
+        <v>1.03385052163212</v>
       </c>
       <c r="E25">
-        <v>1.035980258885621</v>
+        <v>0.9899773600575946</v>
       </c>
       <c r="F25">
-        <v>1.045024917453846</v>
+        <v>0.9970229449902722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03254142664946</v>
+        <v>1.048440110684826</v>
       </c>
       <c r="J25">
-        <v>1.032241366737783</v>
+        <v>0.9966549512018945</v>
       </c>
       <c r="K25">
-        <v>1.035865636807331</v>
+        <v>1.045945133252005</v>
       </c>
       <c r="L25">
-        <v>1.039032221774529</v>
+        <v>1.002733283022656</v>
       </c>
       <c r="M25">
-        <v>1.048048734893587</v>
+        <v>1.009667652370041</v>
       </c>
       <c r="N25">
-        <v>1.03370726787829</v>
+        <v>0.9980703155505218</v>
       </c>
     </row>
   </sheetData>
